--- a/python/app/excel_format/sample_format_updated.xlsx
+++ b/python/app/excel_format/sample_format_updated.xlsx
@@ -2157,7 +2157,7 @@
       </c>
       <c r="F9" s="31" t="inlineStr">
         <is>
-          <t>アプリ作成</t>
+          <t>アプリ実装</t>
         </is>
       </c>
       <c r="G9" s="31" t="inlineStr">
@@ -2190,7 +2190,11 @@
         <f>C10-B10-D10</f>
         <v/>
       </c>
-      <c r="F10" s="31" t="inlineStr"/>
+      <c r="F10" s="31" t="inlineStr">
+        <is>
+          <t>ペイメント配信</t>
+        </is>
+      </c>
       <c r="G10" s="31" t="inlineStr"/>
       <c r="H10" s="54" t="n"/>
     </row>

--- a/python/app/excel_format/sample_format_updated.xlsx
+++ b/python/app/excel_format/sample_format_updated.xlsx
@@ -7,7 +7,7 @@
   </bookViews>
   <sheets>
     <sheet name="FM※コピーして使用" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="2024年02月" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="2024年05月" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="191029" fullCalcOnLoad="1"/>
@@ -2082,7 +2082,7 @@
     <row r="8" ht="20.25" customHeight="1">
       <c r="A8" s="60" t="inlineStr">
         <is>
-          <t>2024/02/1</t>
+          <t>2024/05/1</t>
         </is>
       </c>
       <c r="B8" s="23" t="inlineStr">
@@ -2139,12 +2139,12 @@
       </c>
       <c r="B9" s="52" t="inlineStr">
         <is>
-          <t>9:15</t>
+          <t>00:00</t>
         </is>
       </c>
       <c r="C9" s="52" t="inlineStr">
         <is>
-          <t>18:15</t>
+          <t>00:00</t>
         </is>
       </c>
       <c r="D9" s="53">
@@ -2155,16 +2155,8 @@
         <f>C9-B9-D9</f>
         <v/>
       </c>
-      <c r="F9" s="31" t="inlineStr">
-        <is>
-          <t>アプリ実装</t>
-        </is>
-      </c>
-      <c r="G9" s="31" t="inlineStr">
-        <is>
-          <t>有給</t>
-        </is>
-      </c>
+      <c r="F9" s="31" t="inlineStr"/>
+      <c r="G9" s="31" t="inlineStr"/>
       <c r="H9" s="54" t="n"/>
     </row>
     <row r="10" ht="25.5" customHeight="1">
@@ -2174,12 +2166,12 @@
       </c>
       <c r="B10" s="52" t="inlineStr">
         <is>
-          <t>9:30</t>
+          <t>00:00</t>
         </is>
       </c>
       <c r="C10" s="52" t="inlineStr">
         <is>
-          <t>18:30</t>
+          <t>00:00</t>
         </is>
       </c>
       <c r="D10" s="53">
@@ -2190,11 +2182,7 @@
         <f>C10-B10-D10</f>
         <v/>
       </c>
-      <c r="F10" s="31" t="inlineStr">
-        <is>
-          <t>ペイメント配信</t>
-        </is>
-      </c>
+      <c r="F10" s="31" t="inlineStr"/>
       <c r="G10" s="31" t="inlineStr"/>
       <c r="H10" s="54" t="n"/>
     </row>
@@ -2203,11 +2191,15 @@
         <f>A10+1</f>
         <v/>
       </c>
-      <c r="B11" s="52" t="n">
-        <v>0</v>
-      </c>
-      <c r="C11" s="52" t="n">
-        <v>0</v>
+      <c r="B11" s="52" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="C11" s="52" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
       </c>
       <c r="D11" s="53">
         <f>IF((C11-B11)*24&gt;=8,IF(OR(WEEKDAY(A11)=2,WEEKDAY(A11)=3,WEEKDAY(A11)=4,WEEKDAY(A11)=5,WEEKDAY(A11)=6),"1:00",""),"")</f>
@@ -2217,8 +2209,8 @@
         <f>C11-B11-D11</f>
         <v/>
       </c>
-      <c r="F11" s="31" t="n"/>
-      <c r="G11" s="31" t="n"/>
+      <c r="F11" s="31" t="inlineStr"/>
+      <c r="G11" s="31" t="inlineStr"/>
       <c r="H11" s="54" t="n"/>
     </row>
     <row r="12" ht="25.5" customHeight="1">
@@ -2226,11 +2218,15 @@
         <f>A11+1</f>
         <v/>
       </c>
-      <c r="B12" s="52" t="n">
-        <v>0</v>
-      </c>
-      <c r="C12" s="52" t="n">
-        <v>0</v>
+      <c r="B12" s="52" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="C12" s="52" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
       </c>
       <c r="D12" s="53">
         <f>IF((C12-B12)*24&gt;=8,IF(OR(WEEKDAY(A12)=2,WEEKDAY(A12)=3,WEEKDAY(A12)=4,WEEKDAY(A12)=5,WEEKDAY(A12)=6),"1:00",""),"")</f>
@@ -2240,8 +2236,8 @@
         <f>C12-B12-D12</f>
         <v/>
       </c>
-      <c r="F12" s="31" t="n"/>
-      <c r="G12" s="31" t="n"/>
+      <c r="F12" s="31" t="inlineStr"/>
+      <c r="G12" s="31" t="inlineStr"/>
       <c r="H12" s="54" t="n"/>
     </row>
     <row r="13" ht="25.5" customHeight="1">
@@ -2249,11 +2245,15 @@
         <f>A12+1</f>
         <v/>
       </c>
-      <c r="B13" s="52" t="n">
-        <v>0</v>
-      </c>
-      <c r="C13" s="52" t="n">
-        <v>0</v>
+      <c r="B13" s="52" t="inlineStr">
+        <is>
+          <t>09:00</t>
+        </is>
+      </c>
+      <c r="C13" s="52" t="inlineStr">
+        <is>
+          <t>18:00</t>
+        </is>
       </c>
       <c r="D13" s="53">
         <f>IF((C13-B13)*24&gt;=8,IF(OR(WEEKDAY(A13)=2,WEEKDAY(A13)=3,WEEKDAY(A13)=4,WEEKDAY(A13)=5,WEEKDAY(A13)=6),"1:00",""),"")</f>
@@ -2263,8 +2263,16 @@
         <f>C13-B13-D13</f>
         <v/>
       </c>
-      <c r="F13" s="31" t="n"/>
-      <c r="G13" s="31" t="n"/>
+      <c r="F13" s="31" t="inlineStr">
+        <is>
+          <t>未設定</t>
+        </is>
+      </c>
+      <c r="G13" s="31" t="inlineStr">
+        <is>
+          <t>なし</t>
+        </is>
+      </c>
       <c r="H13" s="54" t="n"/>
     </row>
     <row r="14" ht="25.5" customHeight="1">
@@ -2272,11 +2280,15 @@
         <f>A13+1</f>
         <v/>
       </c>
-      <c r="B14" s="52" t="n">
-        <v>0</v>
-      </c>
-      <c r="C14" s="52" t="n">
-        <v>0</v>
+      <c r="B14" s="52" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="C14" s="52" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
       </c>
       <c r="D14" s="53">
         <f>IF((C14-B14)*24&gt;=8,IF(OR(WEEKDAY(A14)=2,WEEKDAY(A14)=3,WEEKDAY(A14)=4,WEEKDAY(A14)=5,WEEKDAY(A14)=6),"1:00",""),"")</f>
@@ -2286,8 +2298,8 @@
         <f>C14-B14-D14</f>
         <v/>
       </c>
-      <c r="F14" s="31" t="n"/>
-      <c r="G14" s="31" t="n"/>
+      <c r="F14" s="31" t="inlineStr"/>
+      <c r="G14" s="31" t="inlineStr"/>
       <c r="H14" s="54" t="n"/>
     </row>
     <row r="15" ht="25.5" customHeight="1">
@@ -2295,11 +2307,15 @@
         <f>A14+1</f>
         <v/>
       </c>
-      <c r="B15" s="52" t="n">
-        <v>0</v>
-      </c>
-      <c r="C15" s="52" t="n">
-        <v>0</v>
+      <c r="B15" s="52" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="C15" s="52" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
       </c>
       <c r="D15" s="53">
         <f>IF((C15-B15)*24&gt;=8,IF(OR(WEEKDAY(A15)=2,WEEKDAY(A15)=3,WEEKDAY(A15)=4,WEEKDAY(A15)=5,WEEKDAY(A15)=6),"1:00",""),"")</f>
@@ -2309,8 +2325,8 @@
         <f>C15-B15-D15</f>
         <v/>
       </c>
-      <c r="F15" s="31" t="n"/>
-      <c r="G15" s="31" t="n"/>
+      <c r="F15" s="31" t="inlineStr"/>
+      <c r="G15" s="31" t="inlineStr"/>
       <c r="H15" s="54" t="n"/>
     </row>
     <row r="16" ht="25.5" customHeight="1">
@@ -2318,11 +2334,15 @@
         <f>A15+1</f>
         <v/>
       </c>
-      <c r="B16" s="52" t="n">
-        <v>0</v>
-      </c>
-      <c r="C16" s="52" t="n">
-        <v>0</v>
+      <c r="B16" s="52" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="C16" s="52" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
       </c>
       <c r="D16" s="53">
         <f>IF((C16-B16)*24&gt;=8,IF(OR(WEEKDAY(A16)=2,WEEKDAY(A16)=3,WEEKDAY(A16)=4,WEEKDAY(A16)=5,WEEKDAY(A16)=6),"1:00",""),"")</f>
@@ -2332,8 +2352,8 @@
         <f>C16-B16-D16</f>
         <v/>
       </c>
-      <c r="F16" s="31" t="n"/>
-      <c r="G16" s="31" t="n"/>
+      <c r="F16" s="31" t="inlineStr"/>
+      <c r="G16" s="31" t="inlineStr"/>
       <c r="H16" s="54" t="n"/>
     </row>
     <row r="17" ht="25.5" customHeight="1">
@@ -2341,11 +2361,15 @@
         <f>A16+1</f>
         <v/>
       </c>
-      <c r="B17" s="52" t="n">
-        <v>0</v>
-      </c>
-      <c r="C17" s="52" t="n">
-        <v>0</v>
+      <c r="B17" s="52" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="C17" s="52" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
       </c>
       <c r="D17" s="53">
         <f>IF((C17-B17)*24&gt;=8,IF(OR(WEEKDAY(A17)=2,WEEKDAY(A17)=3,WEEKDAY(A17)=4,WEEKDAY(A17)=5,WEEKDAY(A17)=6),"1:00",""),"")</f>
@@ -2355,8 +2379,8 @@
         <f>C17-B17-D17</f>
         <v/>
       </c>
-      <c r="F17" s="31" t="n"/>
-      <c r="G17" s="31" t="n"/>
+      <c r="F17" s="31" t="inlineStr"/>
+      <c r="G17" s="31" t="inlineStr"/>
       <c r="H17" s="54" t="n"/>
     </row>
     <row r="18" ht="25.5" customHeight="1">
@@ -2364,11 +2388,15 @@
         <f>A17+1</f>
         <v/>
       </c>
-      <c r="B18" s="52" t="n">
-        <v>0</v>
-      </c>
-      <c r="C18" s="52" t="n">
-        <v>0</v>
+      <c r="B18" s="52" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="C18" s="52" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
       </c>
       <c r="D18" s="53">
         <f>IF((C18-B18)*24&gt;=8,IF(OR(WEEKDAY(A18)=2,WEEKDAY(A18)=3,WEEKDAY(A18)=4,WEEKDAY(A18)=5,WEEKDAY(A18)=6),"1:00",""),"")</f>
@@ -2378,8 +2406,8 @@
         <f>C18-B18-D18</f>
         <v/>
       </c>
-      <c r="F18" s="31" t="n"/>
-      <c r="G18" s="31" t="n"/>
+      <c r="F18" s="31" t="inlineStr"/>
+      <c r="G18" s="31" t="inlineStr"/>
       <c r="H18" s="54" t="n"/>
     </row>
     <row r="19" ht="25.5" customHeight="1">
@@ -2387,11 +2415,15 @@
         <f>A18+1</f>
         <v/>
       </c>
-      <c r="B19" s="52" t="n">
-        <v>0</v>
-      </c>
-      <c r="C19" s="52" t="n">
-        <v>0</v>
+      <c r="B19" s="52" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="C19" s="52" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
       </c>
       <c r="D19" s="53">
         <f>IF((C19-B19)*24&gt;=8,IF(OR(WEEKDAY(A19)=2,WEEKDAY(A19)=3,WEEKDAY(A19)=4,WEEKDAY(A19)=5,WEEKDAY(A19)=6),"1:00",""),"")</f>
@@ -2401,8 +2433,8 @@
         <f>C19-B19-D19</f>
         <v/>
       </c>
-      <c r="F19" s="31" t="n"/>
-      <c r="G19" s="31" t="n"/>
+      <c r="F19" s="31" t="inlineStr"/>
+      <c r="G19" s="31" t="inlineStr"/>
       <c r="H19" s="54" t="n"/>
     </row>
     <row r="20" ht="25.5" customHeight="1">
@@ -2410,11 +2442,15 @@
         <f>A19+1</f>
         <v/>
       </c>
-      <c r="B20" s="52" t="n">
-        <v>0</v>
-      </c>
-      <c r="C20" s="52" t="n">
-        <v>0</v>
+      <c r="B20" s="52" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="C20" s="52" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
       </c>
       <c r="D20" s="53">
         <f>IF((C20-B20)*24&gt;=8,IF(OR(WEEKDAY(A20)=2,WEEKDAY(A20)=3,WEEKDAY(A20)=4,WEEKDAY(A20)=5,WEEKDAY(A20)=6),"1:00",""),"")</f>
@@ -2424,8 +2460,8 @@
         <f>C20-B20-D20</f>
         <v/>
       </c>
-      <c r="F20" s="31" t="n"/>
-      <c r="G20" s="31" t="n"/>
+      <c r="F20" s="31" t="inlineStr"/>
+      <c r="G20" s="31" t="inlineStr"/>
       <c r="H20" s="54" t="n"/>
     </row>
     <row r="21" ht="25.5" customHeight="1">
@@ -2433,11 +2469,15 @@
         <f>A20+1</f>
         <v/>
       </c>
-      <c r="B21" s="52" t="n">
-        <v>0</v>
-      </c>
-      <c r="C21" s="52" t="n">
-        <v>0</v>
+      <c r="B21" s="52" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="C21" s="52" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
       </c>
       <c r="D21" s="53">
         <f>IF((C21-B21)*24&gt;=8,IF(OR(WEEKDAY(A21)=2,WEEKDAY(A21)=3,WEEKDAY(A21)=4,WEEKDAY(A21)=5,WEEKDAY(A21)=6),"1:00",""),"")</f>
@@ -2447,8 +2487,8 @@
         <f>C21-B21-D21</f>
         <v/>
       </c>
-      <c r="F21" s="31" t="n"/>
-      <c r="G21" s="31" t="n"/>
+      <c r="F21" s="31" t="inlineStr"/>
+      <c r="G21" s="31" t="inlineStr"/>
       <c r="H21" s="54" t="n"/>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -2456,11 +2496,15 @@
         <f>A21+1</f>
         <v/>
       </c>
-      <c r="B22" s="52" t="n">
-        <v>0</v>
-      </c>
-      <c r="C22" s="52" t="n">
-        <v>0</v>
+      <c r="B22" s="52" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="C22" s="52" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
       </c>
       <c r="D22" s="53">
         <f>IF((C22-B22)*24&gt;=8,IF(OR(WEEKDAY(A22)=2,WEEKDAY(A22)=3,WEEKDAY(A22)=4,WEEKDAY(A22)=5,WEEKDAY(A22)=6),"1:00",""),"")</f>
@@ -2470,8 +2514,8 @@
         <f>C22-B22-D22</f>
         <v/>
       </c>
-      <c r="F22" s="31" t="n"/>
-      <c r="G22" s="31" t="n"/>
+      <c r="F22" s="31" t="inlineStr"/>
+      <c r="G22" s="31" t="inlineStr"/>
       <c r="H22" s="54" t="n"/>
     </row>
     <row r="23" ht="25.5" customHeight="1">
@@ -2479,11 +2523,15 @@
         <f>A22+1</f>
         <v/>
       </c>
-      <c r="B23" s="52" t="n">
-        <v>0</v>
-      </c>
-      <c r="C23" s="52" t="n">
-        <v>0</v>
+      <c r="B23" s="52" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="C23" s="52" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
       </c>
       <c r="D23" s="53">
         <f>IF((C23-B23)*24&gt;=8,IF(OR(WEEKDAY(A23)=2,WEEKDAY(A23)=3,WEEKDAY(A23)=4,WEEKDAY(A23)=5,WEEKDAY(A23)=6),"1:00",""),"")</f>
@@ -2493,8 +2541,8 @@
         <f>C23-B23-D23</f>
         <v/>
       </c>
-      <c r="F23" s="31" t="n"/>
-      <c r="G23" s="31" t="n"/>
+      <c r="F23" s="31" t="inlineStr"/>
+      <c r="G23" s="31" t="inlineStr"/>
       <c r="H23" s="54" t="n"/>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -2502,11 +2550,15 @@
         <f>A23+1</f>
         <v/>
       </c>
-      <c r="B24" s="52" t="n">
-        <v>0</v>
-      </c>
-      <c r="C24" s="52" t="n">
-        <v>0</v>
+      <c r="B24" s="52" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="C24" s="52" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
       </c>
       <c r="D24" s="53">
         <f>IF((C24-B24)*24&gt;=8,IF(OR(WEEKDAY(A24)=2,WEEKDAY(A24)=3,WEEKDAY(A24)=4,WEEKDAY(A24)=5,WEEKDAY(A24)=6),"1:00",""),"")</f>
@@ -2516,8 +2568,8 @@
         <f>C24-B24-D24</f>
         <v/>
       </c>
-      <c r="F24" s="31" t="n"/>
-      <c r="G24" s="31" t="n"/>
+      <c r="F24" s="31" t="inlineStr"/>
+      <c r="G24" s="31" t="inlineStr"/>
       <c r="H24" s="54" t="n"/>
     </row>
     <row r="25" ht="25.5" customHeight="1">
@@ -2525,11 +2577,15 @@
         <f>A24+1</f>
         <v/>
       </c>
-      <c r="B25" s="52" t="n">
-        <v>0</v>
-      </c>
-      <c r="C25" s="52" t="n">
-        <v>0</v>
+      <c r="B25" s="52" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="C25" s="52" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
       </c>
       <c r="D25" s="53">
         <f>IF((C25-B25)*24&gt;=8,IF(OR(WEEKDAY(A25)=2,WEEKDAY(A25)=3,WEEKDAY(A25)=4,WEEKDAY(A25)=5,WEEKDAY(A25)=6),"1:00",""),"")</f>
@@ -2539,8 +2595,8 @@
         <f>C25-B25-D25</f>
         <v/>
       </c>
-      <c r="F25" s="31" t="n"/>
-      <c r="G25" s="31" t="n"/>
+      <c r="F25" s="31" t="inlineStr"/>
+      <c r="G25" s="31" t="inlineStr"/>
       <c r="H25" s="54" t="n"/>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -2548,11 +2604,15 @@
         <f>A25+1</f>
         <v/>
       </c>
-      <c r="B26" s="52" t="n">
-        <v>0</v>
-      </c>
-      <c r="C26" s="52" t="n">
-        <v>0</v>
+      <c r="B26" s="52" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="C26" s="52" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
       </c>
       <c r="D26" s="53">
         <f>IF((C26-B26)*24&gt;=8,IF(OR(WEEKDAY(A26)=2,WEEKDAY(A26)=3,WEEKDAY(A26)=4,WEEKDAY(A26)=5,WEEKDAY(A26)=6),"1:00",""),"")</f>
@@ -2562,8 +2622,8 @@
         <f>C26-B26-D26</f>
         <v/>
       </c>
-      <c r="F26" s="31" t="n"/>
-      <c r="G26" s="31" t="n"/>
+      <c r="F26" s="31" t="inlineStr"/>
+      <c r="G26" s="31" t="inlineStr"/>
       <c r="H26" s="54" t="n"/>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -2571,11 +2631,15 @@
         <f>A26+1</f>
         <v/>
       </c>
-      <c r="B27" s="52" t="n">
-        <v>0</v>
-      </c>
-      <c r="C27" s="52" t="n">
-        <v>0</v>
+      <c r="B27" s="52" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="C27" s="52" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
       </c>
       <c r="D27" s="53">
         <f>IF((C27-B27)*24&gt;=8,IF(OR(WEEKDAY(A27)=2,WEEKDAY(A27)=3,WEEKDAY(A27)=4,WEEKDAY(A27)=5,WEEKDAY(A27)=6),"1:00",""),"")</f>
@@ -2585,8 +2649,8 @@
         <f>C27-B27-D27</f>
         <v/>
       </c>
-      <c r="F27" s="31" t="n"/>
-      <c r="G27" s="31" t="n"/>
+      <c r="F27" s="31" t="inlineStr"/>
+      <c r="G27" s="31" t="inlineStr"/>
       <c r="H27" s="54" t="n"/>
     </row>
     <row r="28" ht="25.5" customHeight="1">
@@ -2594,11 +2658,15 @@
         <f>A27+1</f>
         <v/>
       </c>
-      <c r="B28" s="52" t="n">
-        <v>0</v>
-      </c>
-      <c r="C28" s="52" t="n">
-        <v>0</v>
+      <c r="B28" s="52" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="C28" s="52" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
       </c>
       <c r="D28" s="53">
         <f>IF((C28-B28)*24&gt;=8,IF(OR(WEEKDAY(A28)=2,WEEKDAY(A28)=3,WEEKDAY(A28)=4,WEEKDAY(A28)=5,WEEKDAY(A28)=6),"1:00",""),"")</f>
@@ -2608,8 +2676,8 @@
         <f>C28-B28-D28</f>
         <v/>
       </c>
-      <c r="F28" s="31" t="n"/>
-      <c r="G28" s="31" t="n"/>
+      <c r="F28" s="31" t="inlineStr"/>
+      <c r="G28" s="31" t="inlineStr"/>
       <c r="H28" s="54" t="n"/>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -2617,11 +2685,15 @@
         <f>A28+1</f>
         <v/>
       </c>
-      <c r="B29" s="52" t="n">
-        <v>0</v>
-      </c>
-      <c r="C29" s="52" t="n">
-        <v>0</v>
+      <c r="B29" s="52" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="C29" s="52" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
       </c>
       <c r="D29" s="53">
         <f>IF((C29-B29)*24&gt;=8,IF(OR(WEEKDAY(A29)=2,WEEKDAY(A29)=3,WEEKDAY(A29)=4,WEEKDAY(A29)=5,WEEKDAY(A29)=6),"1:00",""),"")</f>
@@ -2631,8 +2703,8 @@
         <f>C29-B29-D29</f>
         <v/>
       </c>
-      <c r="F29" s="31" t="n"/>
-      <c r="G29" s="31" t="n"/>
+      <c r="F29" s="31" t="inlineStr"/>
+      <c r="G29" s="31" t="inlineStr"/>
       <c r="H29" s="54" t="n"/>
     </row>
     <row r="30" ht="25.5" customHeight="1">
@@ -2640,11 +2712,15 @@
         <f>A29+1</f>
         <v/>
       </c>
-      <c r="B30" s="52" t="n">
-        <v>0</v>
-      </c>
-      <c r="C30" s="52" t="n">
-        <v>0</v>
+      <c r="B30" s="52" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="C30" s="52" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
       </c>
       <c r="D30" s="53">
         <f>IF((C30-B30)*24&gt;=8,IF(OR(WEEKDAY(A30)=2,WEEKDAY(A30)=3,WEEKDAY(A30)=4,WEEKDAY(A30)=5,WEEKDAY(A30)=6),"1:00",""),"")</f>
@@ -2654,8 +2730,8 @@
         <f>C30-B30-D30</f>
         <v/>
       </c>
-      <c r="F30" s="31" t="n"/>
-      <c r="G30" s="31" t="n"/>
+      <c r="F30" s="31" t="inlineStr"/>
+      <c r="G30" s="31" t="inlineStr"/>
       <c r="H30" s="54" t="n"/>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -2663,11 +2739,15 @@
         <f>A30+1</f>
         <v/>
       </c>
-      <c r="B31" s="52" t="n">
-        <v>0</v>
-      </c>
-      <c r="C31" s="52" t="n">
-        <v>0</v>
+      <c r="B31" s="52" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="C31" s="52" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
       </c>
       <c r="D31" s="53">
         <f>IF((C31-B31)*24&gt;=8,IF(OR(WEEKDAY(A31)=2,WEEKDAY(A31)=3,WEEKDAY(A31)=4,WEEKDAY(A31)=5,WEEKDAY(A31)=6),"1:00",""),"")</f>
@@ -2677,8 +2757,8 @@
         <f>C31-B31-D31</f>
         <v/>
       </c>
-      <c r="F31" s="31" t="n"/>
-      <c r="G31" s="31" t="n"/>
+      <c r="F31" s="31" t="inlineStr"/>
+      <c r="G31" s="31" t="inlineStr"/>
       <c r="H31" s="54" t="n"/>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -2686,11 +2766,15 @@
         <f>A31+1</f>
         <v/>
       </c>
-      <c r="B32" s="52" t="n">
-        <v>0</v>
-      </c>
-      <c r="C32" s="52" t="n">
-        <v>0</v>
+      <c r="B32" s="52" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="C32" s="52" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
       </c>
       <c r="D32" s="53">
         <f>IF((C32-B32)*24&gt;=8,IF(OR(WEEKDAY(A32)=2,WEEKDAY(A32)=3,WEEKDAY(A32)=4,WEEKDAY(A32)=5,WEEKDAY(A32)=6),"1:00",""),"")</f>
@@ -2700,8 +2784,8 @@
         <f>C32-B32-D32</f>
         <v/>
       </c>
-      <c r="F32" s="31" t="n"/>
-      <c r="G32" s="31" t="n"/>
+      <c r="F32" s="31" t="inlineStr"/>
+      <c r="G32" s="31" t="inlineStr"/>
       <c r="H32" s="54" t="n"/>
     </row>
     <row r="33" ht="25.5" customHeight="1">
@@ -2709,11 +2793,15 @@
         <f>A32+1</f>
         <v/>
       </c>
-      <c r="B33" s="52" t="n">
-        <v>0</v>
-      </c>
-      <c r="C33" s="52" t="n">
-        <v>0</v>
+      <c r="B33" s="52" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="C33" s="52" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
       </c>
       <c r="D33" s="53">
         <f>IF((C33-B33)*24&gt;=8,IF(OR(WEEKDAY(A33)=2,WEEKDAY(A33)=3,WEEKDAY(A33)=4,WEEKDAY(A33)=5,WEEKDAY(A33)=6),"1:00",""),"")</f>
@@ -2723,8 +2811,8 @@
         <f>C33-B33-D33</f>
         <v/>
       </c>
-      <c r="F33" s="31" t="n"/>
-      <c r="G33" s="31" t="n"/>
+      <c r="F33" s="31" t="inlineStr"/>
+      <c r="G33" s="31" t="inlineStr"/>
       <c r="H33" s="54" t="n"/>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -2732,11 +2820,15 @@
         <f>A33+1</f>
         <v/>
       </c>
-      <c r="B34" s="52" t="n">
-        <v>0</v>
-      </c>
-      <c r="C34" s="52" t="n">
-        <v>0</v>
+      <c r="B34" s="52" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="C34" s="52" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
       </c>
       <c r="D34" s="53">
         <f>IF((C34-B34)*24&gt;=8,IF(OR(WEEKDAY(A34)=2,WEEKDAY(A34)=3,WEEKDAY(A34)=4,WEEKDAY(A34)=5,WEEKDAY(A34)=6),"1:00",""),"")</f>
@@ -2746,8 +2838,8 @@
         <f>C34-B34-D34</f>
         <v/>
       </c>
-      <c r="F34" s="31" t="n"/>
-      <c r="G34" s="31" t="n"/>
+      <c r="F34" s="31" t="inlineStr"/>
+      <c r="G34" s="31" t="inlineStr"/>
       <c r="H34" s="54" t="n"/>
     </row>
     <row r="35" ht="25.5" customHeight="1">
@@ -2755,11 +2847,15 @@
         <f>A34+1</f>
         <v/>
       </c>
-      <c r="B35" s="52" t="n">
-        <v>0</v>
-      </c>
-      <c r="C35" s="52" t="n">
-        <v>0</v>
+      <c r="B35" s="52" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="C35" s="52" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
       </c>
       <c r="D35" s="53">
         <f>IF((C35-B35)*24&gt;=8,IF(OR(WEEKDAY(A35)=2,WEEKDAY(A35)=3,WEEKDAY(A35)=4,WEEKDAY(A35)=5,WEEKDAY(A35)=6),"1:00",""),"")</f>
@@ -2769,8 +2865,8 @@
         <f>C35-B35-D35</f>
         <v/>
       </c>
-      <c r="F35" s="31" t="n"/>
-      <c r="G35" s="31" t="n"/>
+      <c r="F35" s="31" t="inlineStr"/>
+      <c r="G35" s="31" t="inlineStr"/>
       <c r="H35" s="54" t="n"/>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2778,11 +2874,15 @@
         <f>A35+1</f>
         <v/>
       </c>
-      <c r="B36" s="52" t="n">
-        <v>0</v>
-      </c>
-      <c r="C36" s="52" t="n">
-        <v>0</v>
+      <c r="B36" s="52" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="C36" s="52" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
       </c>
       <c r="D36" s="53">
         <f>IF((C36-B36)*24&gt;=8,IF(OR(WEEKDAY(A36)=2,WEEKDAY(A36)=3,WEEKDAY(A36)=4,WEEKDAY(A36)=5,WEEKDAY(A36)=6),"1:00",""),"")</f>
@@ -2792,8 +2892,8 @@
         <f>C36-B36-D36</f>
         <v/>
       </c>
-      <c r="F36" s="31" t="n"/>
-      <c r="G36" s="31" t="n"/>
+      <c r="F36" s="31" t="inlineStr"/>
+      <c r="G36" s="31" t="inlineStr"/>
       <c r="H36" s="54" t="n"/>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2801,11 +2901,15 @@
         <f>IF(MONTH(A36)=MONTH(A36+1),A36+1,"")</f>
         <v/>
       </c>
-      <c r="B37" s="52" t="n">
-        <v>0</v>
-      </c>
-      <c r="C37" s="52" t="n">
-        <v>0</v>
+      <c r="B37" s="52" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="C37" s="52" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
       </c>
       <c r="D37" s="53">
         <f>IF((C37-B37)*24&gt;=8,IF(OR(WEEKDAY(A37)=2,WEEKDAY(A37)=3,WEEKDAY(A37)=4,WEEKDAY(A37)=5,WEEKDAY(A37)=6),"1:00",""),"")</f>
@@ -2815,8 +2919,8 @@
         <f>C37-B37-D37</f>
         <v/>
       </c>
-      <c r="F37" s="31" t="n"/>
-      <c r="G37" s="31" t="n"/>
+      <c r="F37" s="31" t="inlineStr"/>
+      <c r="G37" s="31" t="inlineStr"/>
       <c r="H37" s="54" t="n"/>
     </row>
     <row r="38" ht="25.5" customHeight="1">
@@ -2824,11 +2928,15 @@
         <f>IF(MONTH(A37)=MONTH(A37+1),A37+1,"")</f>
         <v/>
       </c>
-      <c r="B38" s="52" t="n">
-        <v>0</v>
-      </c>
-      <c r="C38" s="52" t="n">
-        <v>0</v>
+      <c r="B38" s="52" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="C38" s="52" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
       </c>
       <c r="D38" s="53">
         <f>IF((C38-B38)*24&gt;=8,IF(OR(WEEKDAY(A38)=2,WEEKDAY(A38)=3,WEEKDAY(A38)=4,WEEKDAY(A38)=5,WEEKDAY(A38)=6),"1:00",""),"")</f>
@@ -2838,8 +2946,8 @@
         <f>C38-B38-D38</f>
         <v/>
       </c>
-      <c r="F38" s="31" t="n"/>
-      <c r="G38" s="31" t="n"/>
+      <c r="F38" s="31" t="inlineStr"/>
+      <c r="G38" s="31" t="inlineStr"/>
       <c r="H38" s="54" t="n"/>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2847,11 +2955,15 @@
         <f>IF(A38="","", IF(MONTH(A38)=MONTH(A38+1),A38+1,""))</f>
         <v/>
       </c>
-      <c r="B39" s="52" t="n">
-        <v>0</v>
-      </c>
-      <c r="C39" s="52" t="n">
-        <v>0</v>
+      <c r="B39" s="52" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="C39" s="52" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
       </c>
       <c r="D39" s="53">
         <f>IF((C39-B39)*24&gt;=8,IF(OR(WEEKDAY(A39)=2,WEEKDAY(A39)=3,WEEKDAY(A39)=4,WEEKDAY(A39)=5,WEEKDAY(A39)=6),"1:00",""),"")</f>
@@ -2861,8 +2973,8 @@
         <f>C39-B39-D39</f>
         <v/>
       </c>
-      <c r="F39" s="33" t="n"/>
-      <c r="G39" s="33" t="n"/>
+      <c r="F39" s="33" t="inlineStr"/>
+      <c r="G39" s="33" t="inlineStr"/>
       <c r="H39" s="55" t="n"/>
     </row>
     <row r="40" ht="26.25" customHeight="1">

--- a/python/app/excel_format/sample_format_updated.xlsx
+++ b/python/app/excel_format/sample_format_updated.xlsx
@@ -2139,12 +2139,12 @@
       </c>
       <c r="B9" s="52" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>08:00</t>
         </is>
       </c>
       <c r="C9" s="52" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>18:00</t>
         </is>
       </c>
       <c r="D9" s="53">
@@ -2155,8 +2155,16 @@
         <f>C9-B9-D9</f>
         <v/>
       </c>
-      <c r="F9" s="31" t="inlineStr"/>
-      <c r="G9" s="31" t="inlineStr"/>
+      <c r="F9" s="31" t="inlineStr">
+        <is>
+          <t>時間操作</t>
+        </is>
+      </c>
+      <c r="G9" s="31" t="inlineStr">
+        <is>
+          <t>なし</t>
+        </is>
+      </c>
       <c r="H9" s="54" t="n"/>
     </row>
     <row r="10" ht="25.5" customHeight="1">
@@ -2182,7 +2190,11 @@
         <f>C10-B10-D10</f>
         <v/>
       </c>
-      <c r="F10" s="31" t="inlineStr"/>
+      <c r="F10" s="31" t="inlineStr">
+        <is>
+          <t>勉強</t>
+        </is>
+      </c>
       <c r="G10" s="31" t="inlineStr"/>
       <c r="H10" s="54" t="n"/>
     </row>
@@ -2247,12 +2259,12 @@
       </c>
       <c r="B13" s="52" t="inlineStr">
         <is>
-          <t>09:00</t>
+          <t>00:00</t>
         </is>
       </c>
       <c r="C13" s="52" t="inlineStr">
         <is>
-          <t>18:00</t>
+          <t>00:00</t>
         </is>
       </c>
       <c r="D13" s="53">
@@ -2263,16 +2275,8 @@
         <f>C13-B13-D13</f>
         <v/>
       </c>
-      <c r="F13" s="31" t="inlineStr">
-        <is>
-          <t>未設定</t>
-        </is>
-      </c>
-      <c r="G13" s="31" t="inlineStr">
-        <is>
-          <t>なし</t>
-        </is>
-      </c>
+      <c r="F13" s="31" t="inlineStr"/>
+      <c r="G13" s="31" t="inlineStr"/>
       <c r="H13" s="54" t="n"/>
     </row>
     <row r="14" ht="25.5" customHeight="1">
@@ -2444,12 +2448,12 @@
       </c>
       <c r="B20" s="52" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>00:52</t>
         </is>
       </c>
       <c r="C20" s="52" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>00:53</t>
         </is>
       </c>
       <c r="D20" s="53">
@@ -2606,7 +2610,7 @@
       </c>
       <c r="B26" s="52" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>10:19</t>
         </is>
       </c>
       <c r="C26" s="52" t="inlineStr">
